--- a/data/case1/2/Q1_3.xlsx
+++ b/data/case1/2/Q1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11740040483842051</v>
+        <v>0.11767664784914444</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999941227685</v>
+        <v>-0.0059999999148061534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999526774133</v>
+        <v>-0.003999999934416465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999089803708</v>
+        <v>-0.0079999998774216152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999518599552</v>
+        <v>-0.0029999999465708527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999490831755</v>
+        <v>0.082239552746687039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998713991012</v>
+        <v>-0.0099999998515083455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998681736813</v>
+        <v>-0.0099999998540463153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999418311987</v>
+        <v>-0.0019999999725892614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999392315004</v>
+        <v>-0.0019999999801179058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999293419677</v>
+        <v>-0.0029999999668746113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999240215018</v>
+        <v>0.032572844116375954</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999225551193</v>
+        <v>-0.0034999999618667843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998793258698</v>
+        <v>-0.0079999998998134814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999994694766059</v>
+        <v>-0.00099999999860056477</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.012140025691941059</v>
+        <v>0.011904650977811126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999369035848</v>
+        <v>-0.0019999999855588868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999173847556</v>
+        <v>-0.0015112604061275903</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999600568437</v>
+        <v>-0.0039999999419220167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999572088996</v>
+        <v>-0.020282035066445658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999567790212</v>
+        <v>-0.0039999999303939049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999564832578</v>
+        <v>-0.003999999929812148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.047783583870119273</v>
+        <v>-0.0049999999156407071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999794428014</v>
+        <v>-0.019999999698339543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999791576961</v>
+        <v>-0.019999999694007009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999943202269</v>
+        <v>-0.0024999999504675685</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999416466245</v>
+        <v>-0.002499999944063358</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999394562096</v>
+        <v>-0.001999999923115503</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.04544386669595557</v>
+        <v>-0.0069999998345560144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999372422952</v>
+        <v>-0.059999999086601363</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998763137228</v>
+        <v>-0.0069999998203122971</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998469115781</v>
+        <v>-0.0099999997778450478</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999042841239</v>
+        <v>-0.0039999998614757004</v>
       </c>
     </row>
   </sheetData>
